--- a/medicine/Enfance/Nouvelles_de_Poudlard___Héroïsme,_Tribulations_et_Passe-temps_dangereux/Nouvelles_de_Poudlard___Héroïsme,_Tribulations_et_Passe-temps_dangereux.xlsx
+++ b/medicine/Enfance/Nouvelles_de_Poudlard___Héroïsme,_Tribulations_et_Passe-temps_dangereux/Nouvelles_de_Poudlard___Héroïsme,_Tribulations_et_Passe-temps_dangereux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nouvelles_de_Poudlard_:_H%C3%A9ro%C3%AFsme,_Tribulations_et_Passe-temps_dangereux</t>
+          <t>Nouvelles_de_Poudlard_:_Héroïsme,_Tribulations_et_Passe-temps_dangereux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Nouvelles de Poudlard : Héroïsme, Tribulations et Passe-temps dangereux (titre original : Short Stories from Hogwarts of Heroism, Hardship and Dangerous Hobbies) est un livre numérique écrit par J. K. Rowling et paru le 6 septembre 2016 à la fois en anglais et en français[3]. Il était déjà paru auparavant sur le site Pottermore[4].
-Le livre contient des informations supplémentaires de J. K. Rowling concernant quelques professeurs de Poudlard[3] ainsi que certaines aptitudes ou particularités qui leur sont liées.
+Nouvelles de Poudlard : Héroïsme, Tribulations et Passe-temps dangereux (titre original : Short Stories from Hogwarts of Heroism, Hardship and Dangerous Hobbies) est un livre numérique écrit par J. K. Rowling et paru le 6 septembre 2016 à la fois en anglais et en français. Il était déjà paru auparavant sur le site Pottermore.
+Le livre contient des informations supplémentaires de J. K. Rowling concernant quelques professeurs de Poudlard ainsi que certaines aptitudes ou particularités qui leur sont liées.
 Sa sortie a lieu en même temps que deux autres recueils de nouvelles : 
 Poudlard : Le Guide pas complet et pas fiable du tout
 Nouvelles de Poudlard : Pouvoir, Politique et Esprits frappeurs enquiquinants</t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nouvelles_de_Poudlard_:_H%C3%A9ro%C3%AFsme,_Tribulations_et_Passe-temps_dangereux</t>
+          <t>Nouvelles_de_Poudlard_:_Héroïsme,_Tribulations_et_Passe-temps_dangereux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Chapitres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Minerva McGonagall / Animagi
 Remus Lupin / Les Loups-garous
